--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/2.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/2_fold/2.xlsx
@@ -479,13 +479,13 @@
         <v>-0.1051679731033566</v>
       </c>
       <c r="E2" t="n">
-        <v>-1.584370543911761</v>
+        <v>-1.588426004177793</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1129572353516221</v>
+        <v>0.1124236428695012</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.09613389070283992</v>
+        <v>-0.09510448219750928</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.1038749458897262</v>
       </c>
       <c r="E3" t="n">
-        <v>-1.597867757876915</v>
+        <v>-1.602913276170244</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1381037648335219</v>
+        <v>0.1353948779257634</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.09373823360022028</v>
+        <v>-0.09291502159978003</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.108400047779599</v>
       </c>
       <c r="E4" t="n">
-        <v>-1.73917060243432</v>
+        <v>-1.744853598471776</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1137647071608494</v>
+        <v>0.1096738314645889</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.09046427382791486</v>
+        <v>-0.08908071102029155</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.1173891736087734</v>
       </c>
       <c r="E5" t="n">
-        <v>-1.899289271567754</v>
+        <v>-1.902349951749123</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1937201564655604</v>
+        <v>0.185850060859057</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1063272385323832</v>
+        <v>-0.1042369411392959</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.12685765110709</v>
       </c>
       <c r="E6" t="n">
-        <v>-1.874989564373114</v>
+        <v>-1.877745671854512</v>
       </c>
       <c r="F6" t="n">
-        <v>0.2697830564832949</v>
+        <v>0.2599391408986804</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1621923251855872</v>
+        <v>-0.1592378912949058</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.1336959447038222</v>
       </c>
       <c r="E7" t="n">
-        <v>-1.858301026639523</v>
+        <v>-1.857517165117116</v>
       </c>
       <c r="F7" t="n">
-        <v>0.3934128143467361</v>
+        <v>0.3814581391204573</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1687103383668933</v>
+        <v>-0.1657842368203954</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.1333084783533706</v>
       </c>
       <c r="E8" t="n">
-        <v>-1.692766944719255</v>
+        <v>-1.691251951315003</v>
       </c>
       <c r="F8" t="n">
-        <v>0.4665716490856707</v>
+        <v>0.4540471789374812</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1750457653301286</v>
+        <v>-0.1721149417262667</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.1190335743581672</v>
       </c>
       <c r="E9" t="n">
-        <v>-1.4019999664605</v>
+        <v>-1.397961033395242</v>
       </c>
       <c r="F9" t="n">
-        <v>0.5722937914060741</v>
+        <v>0.5584235349091724</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1817211804235648</v>
+        <v>-0.178529069645567</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.08586411162505439</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.002469053929428</v>
+        <v>-0.9953245811378445</v>
       </c>
       <c r="F10" t="n">
-        <v>0.5575357881247588</v>
+        <v>0.5434719272759372</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.157783497626824</v>
+        <v>-0.1548558220612047</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>-0.02995898695435664</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.4182852362212091</v>
+        <v>-0.4113375158197879</v>
       </c>
       <c r="F11" t="n">
-        <v>0.5327827634231842</v>
+        <v>0.5177776391398248</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1428429081274378</v>
+        <v>-0.139959305097215</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.0490828496683959</v>
       </c>
       <c r="E12" t="n">
-        <v>0.2849581748317548</v>
+        <v>0.2902138246777778</v>
       </c>
       <c r="F12" t="n">
-        <v>0.4631733418027826</v>
+        <v>0.4477290661845802</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.05997709746744184</v>
+        <v>-0.05723515615813603</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.1499584892785041</v>
       </c>
       <c r="E13" t="n">
-        <v>1.012350187243714</v>
+        <v>1.012964054701021</v>
       </c>
       <c r="F13" t="n">
-        <v>0.2460720324400213</v>
+        <v>0.2307159018926118</v>
       </c>
       <c r="G13" t="n">
-        <v>0.03897361459312591</v>
+        <v>0.04065624103379634</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.2691651045293876</v>
       </c>
       <c r="E14" t="n">
-        <v>1.769138580765085</v>
+        <v>1.765250753535472</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.03972734147190848</v>
+        <v>-0.053942308156375</v>
       </c>
       <c r="G14" t="n">
-        <v>0.1725716355517644</v>
+        <v>0.1739237179769617</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.4026974569098077</v>
       </c>
       <c r="E15" t="n">
-        <v>2.483267908060964</v>
+        <v>2.477288209419143</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.332948215540771</v>
+        <v>-0.3483830470442456</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2913392483495078</v>
+        <v>0.293434267799959</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.5475449134182575</v>
       </c>
       <c r="E16" t="n">
-        <v>3.166571644885291</v>
+        <v>3.155907665338479</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.6507080477107112</v>
+        <v>-0.6679309649359834</v>
       </c>
       <c r="G16" t="n">
-        <v>0.4238275858276292</v>
+        <v>0.4247310728032559</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.6967291433600653</v>
       </c>
       <c r="E17" t="n">
-        <v>3.986600978662281</v>
+        <v>3.966773059791256</v>
       </c>
       <c r="F17" t="n">
-        <v>-1.068122178488441</v>
+        <v>-1.08386551773969</v>
       </c>
       <c r="G17" t="n">
-        <v>0.5881048134795395</v>
+        <v>0.5894411557135237</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.8420674307497331</v>
       </c>
       <c r="E18" t="n">
-        <v>4.585592381254136</v>
+        <v>4.561141568223851</v>
       </c>
       <c r="F18" t="n">
-        <v>-1.419122146462009</v>
+        <v>-1.4351826505662</v>
       </c>
       <c r="G18" t="n">
-        <v>0.7154492564692503</v>
+        <v>0.7176796415641333</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.9740475958761418</v>
       </c>
       <c r="E19" t="n">
-        <v>5.217041632146333</v>
+        <v>5.185715503594206</v>
       </c>
       <c r="F19" t="n">
-        <v>-1.826281542664464</v>
+        <v>-1.842386119304052</v>
       </c>
       <c r="G19" t="n">
-        <v>0.9080037376353274</v>
+        <v>0.9093023034104004</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>1.086713945623379</v>
       </c>
       <c r="E20" t="n">
-        <v>5.655602709818737</v>
+        <v>5.622209894160343</v>
       </c>
       <c r="F20" t="n">
-        <v>-2.215336570933719</v>
+        <v>-2.228312784569722</v>
       </c>
       <c r="G20" t="n">
-        <v>1.086637593692621</v>
+        <v>1.087242017035201</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>1.178451253408589</v>
       </c>
       <c r="E21" t="n">
-        <v>6.016186880221905</v>
+        <v>5.980003328661445</v>
       </c>
       <c r="F21" t="n">
-        <v>-2.646746092728494</v>
+        <v>-2.656679727403022</v>
       </c>
       <c r="G21" t="n">
-        <v>1.283731546004529</v>
+        <v>1.28177189219851</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>1.248525667574713</v>
       </c>
       <c r="E22" t="n">
-        <v>6.295668141380934</v>
+        <v>6.256826071524597</v>
       </c>
       <c r="F22" t="n">
-        <v>-3.004661513711496</v>
+        <v>-3.012552071566577</v>
       </c>
       <c r="G22" t="n">
-        <v>1.417389379689777</v>
+        <v>1.41678810438544</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>1.299457945990103</v>
       </c>
       <c r="E23" t="n">
-        <v>6.550357027360356</v>
+        <v>6.509152354802946</v>
       </c>
       <c r="F23" t="n">
-        <v>-3.285333520335789</v>
+        <v>-3.292606275685759</v>
       </c>
       <c r="G23" t="n">
-        <v>1.51280012274654</v>
+        <v>1.510983704680559</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.333367640826178</v>
       </c>
       <c r="E24" t="n">
-        <v>6.602173736833574</v>
+        <v>6.562930292101306</v>
       </c>
       <c r="F24" t="n">
-        <v>-3.523021425786042</v>
+        <v>-3.52775056623599</v>
       </c>
       <c r="G24" t="n">
-        <v>1.627519358364298</v>
+        <v>1.62439965246588</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.353772781902479</v>
       </c>
       <c r="E25" t="n">
-        <v>6.63628273119216</v>
+        <v>6.596120059293051</v>
       </c>
       <c r="F25" t="n">
-        <v>-3.677241458262401</v>
+        <v>-3.680480789614038</v>
       </c>
       <c r="G25" t="n">
-        <v>1.679886974529972</v>
+        <v>1.677060036188116</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.364506810007338</v>
       </c>
       <c r="E26" t="n">
-        <v>6.576753328024568</v>
+        <v>6.536922774160054</v>
       </c>
       <c r="F26" t="n">
-        <v>-3.858315830967272</v>
+        <v>-3.856985784809773</v>
       </c>
       <c r="G26" t="n">
-        <v>1.721101091202109</v>
+        <v>1.717387980094961</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.366470615662698</v>
       </c>
       <c r="E27" t="n">
-        <v>6.445042555992369</v>
+        <v>6.408270321280543</v>
       </c>
       <c r="F27" t="n">
-        <v>-3.997496110739603</v>
+        <v>-3.992286894457659</v>
       </c>
       <c r="G27" t="n">
-        <v>1.743529289661522</v>
+        <v>1.739751643770401</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.362073080769147</v>
       </c>
       <c r="E28" t="n">
-        <v>6.22806559414019</v>
+        <v>6.193133387781164</v>
       </c>
       <c r="F28" t="n">
-        <v>-4.004212450330193</v>
+        <v>-3.995586825545466</v>
       </c>
       <c r="G28" t="n">
-        <v>1.734705338467511</v>
+        <v>1.729696809623532</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.35064640768543</v>
       </c>
       <c r="E29" t="n">
-        <v>6.089413397783056</v>
+        <v>6.055342179883381</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.947974321145241</v>
+        <v>-3.938334241036835</v>
       </c>
       <c r="G29" t="n">
-        <v>1.688533061563276</v>
+        <v>1.683039734829937</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>1.332559537657692</v>
       </c>
       <c r="E30" t="n">
-        <v>5.8365472259461</v>
+        <v>5.805318686579494</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.866063153082314</v>
+        <v>-3.856709544453985</v>
       </c>
       <c r="G30" t="n">
-        <v>1.661123092584946</v>
+        <v>1.655096173369486</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>1.309333050489901</v>
       </c>
       <c r="E31" t="n">
-        <v>5.611929975279129</v>
+        <v>5.581233454375522</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.734497977818835</v>
+        <v>-3.726146232361214</v>
       </c>
       <c r="G31" t="n">
-        <v>1.566570189949293</v>
+        <v>1.560477161930738</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>1.281384340189428</v>
       </c>
       <c r="E32" t="n">
-        <v>5.361061233707103</v>
+        <v>5.332258257806422</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.608036559556174</v>
+        <v>-3.599815457685621</v>
       </c>
       <c r="G32" t="n">
-        <v>1.456272374043268</v>
+        <v>1.452482135999176</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>1.251477669318685</v>
       </c>
       <c r="E33" t="n">
-        <v>5.008133092309942</v>
+        <v>4.981818640640037</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.393208920814132</v>
+        <v>-3.387110383728652</v>
       </c>
       <c r="G33" t="n">
-        <v>1.333491012486208</v>
+        <v>1.330442137448248</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>1.219728126097216</v>
       </c>
       <c r="E34" t="n">
-        <v>4.670707465238471</v>
+        <v>4.643894049507113</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.272991636405671</v>
+        <v>-3.267519558930469</v>
       </c>
       <c r="G34" t="n">
-        <v>1.231743268447089</v>
+        <v>1.229826113157345</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>1.187408144723629</v>
       </c>
       <c r="E35" t="n">
-        <v>4.296177485420579</v>
+        <v>4.272030458080705</v>
       </c>
       <c r="F35" t="n">
-        <v>-3.112660474690861</v>
+        <v>-3.109442392597362</v>
       </c>
       <c r="G35" t="n">
-        <v>1.106802352655604</v>
+        <v>1.105037877220626</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>1.153477625122316</v>
       </c>
       <c r="E36" t="n">
-        <v>3.9691262183776</v>
+        <v>3.945928324567871</v>
       </c>
       <c r="F36" t="n">
-        <v>-3.008837386440307</v>
+        <v>-3.005212420403951</v>
       </c>
       <c r="G36" t="n">
-        <v>0.9973088605205644</v>
+        <v>0.9961110319692547</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>1.115656282652481</v>
       </c>
       <c r="E37" t="n">
-        <v>3.626375684618769</v>
+        <v>3.606547765747744</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.864318820818085</v>
+        <v>-2.861417116567967</v>
       </c>
       <c r="G37" t="n">
-        <v>0.9142620376616188</v>
+        <v>0.9133805869536905</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>1.07376440380949</v>
       </c>
       <c r="E38" t="n">
-        <v>3.260002271887457</v>
+        <v>3.243169711404267</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.725722502139756</v>
+        <v>-2.724762350475762</v>
       </c>
       <c r="G38" t="n">
-        <v>0.8273509978598801</v>
+        <v>0.8263955682532506</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>1.025603925660541</v>
       </c>
       <c r="E39" t="n">
-        <v>2.918485769119725</v>
+        <v>2.904001645165517</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.565333101717458</v>
+        <v>-2.56539527547275</v>
       </c>
       <c r="G39" t="n">
-        <v>0.7459694872312707</v>
+        <v>0.7453650638886912</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.9719078101608175</v>
       </c>
       <c r="E40" t="n">
-        <v>2.67945207732076</v>
+        <v>2.665202482215625</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.422384620168733</v>
+        <v>-2.423217276283901</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7070628825909603</v>
+        <v>0.7063309636995554</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.9134695529770679</v>
       </c>
       <c r="E41" t="n">
-        <v>2.471980616942117</v>
+        <v>2.457211595526952</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.302401864609346</v>
+        <v>-2.302678104965134</v>
       </c>
       <c r="G41" t="n">
-        <v>0.6146081474440004</v>
+        <v>0.613632255588794</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.8514850225841697</v>
       </c>
       <c r="E42" t="n">
-        <v>2.22333596438849</v>
+        <v>2.208305655799189</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.242286139319069</v>
+        <v>-2.240941926989478</v>
       </c>
       <c r="G42" t="n">
-        <v>0.560400502925526</v>
+        <v>0.559515904179355</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.7888812353990292</v>
       </c>
       <c r="E43" t="n">
-        <v>1.987429848583549</v>
+        <v>1.973043313814861</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.142518511334546</v>
+        <v>-2.14114439264165</v>
       </c>
       <c r="G43" t="n">
-        <v>0.4940178205037908</v>
+        <v>0.4938950470123294</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.7263184768999487</v>
       </c>
       <c r="E44" t="n">
-        <v>1.752313890377502</v>
+        <v>1.738150866324038</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.092981768558531</v>
+        <v>-2.090639628106036</v>
       </c>
       <c r="G44" t="n">
-        <v>0.4532239669370409</v>
+        <v>0.4519332712575744</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.6664219495081591</v>
       </c>
       <c r="E45" t="n">
-        <v>1.533964383851549</v>
+        <v>1.520731605098774</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.038645054472111</v>
+        <v>-2.036524063706158</v>
       </c>
       <c r="G45" t="n">
-        <v>0.3641281885949368</v>
+        <v>0.3636339465908484</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.6097762810713235</v>
       </c>
       <c r="E46" t="n">
-        <v>1.336067681787777</v>
+        <v>1.322502785000408</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.967628459757266</v>
+        <v>-1.965010865958543</v>
       </c>
       <c r="G46" t="n">
-        <v>0.3135203258068771</v>
+        <v>0.3127207240932563</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.5583538195739308</v>
       </c>
       <c r="E47" t="n">
-        <v>1.139079188756996</v>
+        <v>1.125750394837822</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.879044237629585</v>
+        <v>-1.87734429697858</v>
       </c>
       <c r="G47" t="n">
-        <v>0.3006716077196996</v>
+        <v>0.2995068335699371</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>0.5136051990468283</v>
       </c>
       <c r="E48" t="n">
-        <v>0.9788550603424352</v>
+        <v>0.9651343356620571</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.824455680483756</v>
+        <v>-1.822184370891718</v>
       </c>
       <c r="G48" t="n">
-        <v>0.230659237204245</v>
+        <v>0.2296408468327634</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>0.475300736503019</v>
       </c>
       <c r="E49" t="n">
-        <v>0.8486018300165606</v>
+        <v>0.8354272899712739</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.782628483363872</v>
+        <v>-1.779588265431079</v>
       </c>
       <c r="G49" t="n">
-        <v>0.1945307763130303</v>
+        <v>0.1928796302547859</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>0.444513451138682</v>
       </c>
       <c r="E50" t="n">
-        <v>0.7588103352228417</v>
+        <v>0.7455382059920342</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.702481790735923</v>
+        <v>-1.700670094727305</v>
       </c>
       <c r="G50" t="n">
-        <v>0.1621988495423929</v>
+        <v>0.1603588211895924</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>0.4196362255743507</v>
       </c>
       <c r="E51" t="n">
-        <v>0.6516700016741465</v>
+        <v>0.6376108628826886</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.620306974470177</v>
+        <v>-1.61878489797988</v>
       </c>
       <c r="G51" t="n">
-        <v>0.1307955940533228</v>
+        <v>0.1296560042095011</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>0.4001703056863933</v>
       </c>
       <c r="E52" t="n">
-        <v>0.4843124186018508</v>
+        <v>0.4716604529048359</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.564613455901195</v>
+        <v>-1.564297078057814</v>
       </c>
       <c r="G52" t="n">
-        <v>0.07832094458740049</v>
+        <v>0.07683821857513524</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>0.3852893742618405</v>
       </c>
       <c r="E53" t="n">
-        <v>0.3970173181345147</v>
+        <v>0.3844802558333547</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.55735801476156</v>
+        <v>-1.556435639556478</v>
       </c>
       <c r="G53" t="n">
-        <v>0.01414031491636495</v>
+        <v>0.01390578606729115</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>0.3742948115572606</v>
       </c>
       <c r="E54" t="n">
-        <v>0.3023416420073996</v>
+        <v>0.2895023680349499</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.504347411784835</v>
+        <v>-1.504230934369858</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.01978766724327137</v>
+        <v>-0.02038107245200173</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>0.3666360756232855</v>
       </c>
       <c r="E55" t="n">
-        <v>0.1954893539579024</v>
+        <v>0.1836700443760555</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.49589492910345</v>
+        <v>-1.495756415420775</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.03159753271039043</v>
+        <v>-0.03245537313149931</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>0.3612940565542436</v>
       </c>
       <c r="E56" t="n">
-        <v>0.06999910549308376</v>
+        <v>0.06027638938080941</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.498794272324886</v>
+        <v>-1.49890838871118</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.08700300578017464</v>
+        <v>-0.08691643472850311</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>0.3578957283673779</v>
       </c>
       <c r="E57" t="n">
-        <v>0.009849538791699279</v>
+        <v>0.0004195902359868589</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.503972795233965</v>
+        <v>-1.504340328698789</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.08700930185665985</v>
+        <v>-0.08779788543643149</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>0.355662065595256</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.1133221795074434</v>
+        <v>-0.1208947855000211</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.528111952478232</v>
+        <v>-1.526803942588431</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1529874613642208</v>
+        <v>-0.1526600653869902</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>0.3544177370823293</v>
       </c>
       <c r="E59" t="n">
-        <v>-0.2000238747660492</v>
+        <v>-0.2066567913432103</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.539494471753918</v>
+        <v>-1.538403676502857</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.2007117211220576</v>
+        <v>-0.2000899835691439</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>0.3536691449457265</v>
       </c>
       <c r="E60" t="n">
-        <v>-0.315866960036416</v>
+        <v>-0.3226808888125266</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.52411630493881</v>
+        <v>-1.523720439129803</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.2386566000792533</v>
+        <v>-0.2378255179832066</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>0.3520523308812328</v>
       </c>
       <c r="E61" t="n">
-        <v>-0.4193964937208474</v>
+        <v>-0.4239517050578916</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.580062453576762</v>
+        <v>-1.578207472042309</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.249742416750574</v>
+        <v>-0.248956981209045</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>0.3494180547869298</v>
       </c>
       <c r="E62" t="n">
-        <v>-0.5263935915295043</v>
+        <v>-0.5294188562806441</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.60322257092758</v>
+        <v>-1.602228577852479</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2717519261237216</v>
+        <v>-0.2708689013966719</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>0.3447992687011607</v>
       </c>
       <c r="E63" t="n">
-        <v>-0.6421249214422586</v>
+        <v>-0.6426490698096518</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.663700320615755</v>
+        <v>-1.661037867272075</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3140489679513137</v>
+        <v>-0.3134775990102815</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>0.3386451179223134</v>
       </c>
       <c r="E64" t="n">
-        <v>-0.7470773684123458</v>
+        <v>-0.7453207630729743</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.752337272384</v>
+        <v>-1.748310144462153</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3798917618144427</v>
+        <v>-0.3778817393965417</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>0.3310656200126476</v>
       </c>
       <c r="E65" t="n">
-        <v>-0.8493036142643403</v>
+        <v>-0.8459454444690453</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.841108802787117</v>
+        <v>-1.83605462738862</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.4084334505409881</v>
+        <v>-0.4058662253541467</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>0.3219613706374019</v>
       </c>
       <c r="E66" t="n">
-        <v>-0.911199555180808</v>
+        <v>-0.9074407975191419</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.879441677457713</v>
+        <v>-1.874048300938576</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.4546088754834651</v>
+        <v>-0.4519031366139492</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>0.3118287517779416</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.01309604402689</v>
+        <v>-1.008931976441489</v>
       </c>
       <c r="F67" t="n">
-        <v>-1.899059464776044</v>
+        <v>-1.893809323996946</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.4933596522307667</v>
+        <v>-0.4898149611695976</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>0.3008034429075443</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.052741650644651</v>
+        <v>-1.047132633505896</v>
       </c>
       <c r="F68" t="n">
-        <v>-1.916038409037515</v>
+        <v>-1.911581573895552</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.5143633633854031</v>
+        <v>-0.5107635816549884</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>0.2894509100059106</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.073129920322859</v>
+        <v>-1.068189074301096</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.006484695785695</v>
+        <v>-2.000804847786481</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.5533549650582638</v>
+        <v>-0.548760403243187</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>0.2783804989115929</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.069228713930715</v>
+        <v>-1.06522913134349</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.032415086790002</v>
+        <v>-2.027268044263349</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.5834565067340181</v>
+        <v>-0.5795057187395534</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>0.2679586199503322</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.04666514982687</v>
+        <v>-1.044678737695788</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.070077429314924</v>
+        <v>-2.065063391404021</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5749316191730536</v>
+        <v>-0.5707100998897251</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>0.2584745769401884</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.051901911443437</v>
+        <v>-1.050379834953139</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.118606799853306</v>
+        <v>-2.114054736554505</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5810750158034901</v>
+        <v>-0.5767905357553097</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>0.2498672847014992</v>
       </c>
       <c r="E73" t="n">
-        <v>-0.9206633451476284</v>
+        <v>-0.9217454832935226</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.06500121764873</v>
+        <v>-2.062526859590045</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5889655736585705</v>
+        <v>-0.5848510876754904</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>0.2424278238639874</v>
       </c>
       <c r="E74" t="n">
-        <v>-0.7764580093305445</v>
+        <v>-0.7801443621126307</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.068725346889727</v>
+        <v>-2.06697346360772</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.5893826887257152</v>
+        <v>-0.585424030635644</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>0.2360592543579398</v>
       </c>
       <c r="E75" t="n">
-        <v>-0.6590834034551523</v>
+        <v>-0.6656690994586743</v>
       </c>
       <c r="F75" t="n">
-        <v>-2.037705365056694</v>
+        <v>-2.037440929844315</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.580357263084177</v>
+        <v>-0.5766441519770287</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>0.2308604899461324</v>
       </c>
       <c r="E76" t="n">
-        <v>-0.4923632981269834</v>
+        <v>-0.5010518836765632</v>
       </c>
       <c r="F76" t="n">
-        <v>-1.994824362135099</v>
+        <v>-1.996926464671596</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5597502047481084</v>
+        <v>-0.5568366953545808</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>0.2266139213415959</v>
       </c>
       <c r="E77" t="n">
-        <v>-0.3289722432403654</v>
+        <v>-0.3390113371960213</v>
       </c>
       <c r="F77" t="n">
-        <v>-1.958737612750599</v>
+        <v>-1.961834495371758</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.4918438718169542</v>
+        <v>-0.4905484540801237</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>0.2227472568264881</v>
       </c>
       <c r="E78" t="n">
-        <v>-0.1280313881959984</v>
+        <v>-0.1406581695870725</v>
       </c>
       <c r="F78" t="n">
-        <v>-1.968720042017888</v>
+        <v>-1.971849192031034</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.4414799819926961</v>
+        <v>-0.4412297129524092</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>0.2198003443967208</v>
       </c>
       <c r="E79" t="n">
-        <v>0.09872652847594261</v>
+        <v>0.08456035638423642</v>
       </c>
       <c r="F79" t="n">
-        <v>-1.907179042413274</v>
+        <v>-1.911144783589391</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.4149058171677765</v>
+        <v>-0.4144761099476614</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>0.2175094211170315</v>
       </c>
       <c r="E80" t="n">
-        <v>0.2849518787552696</v>
+        <v>0.2703087788698093</v>
       </c>
       <c r="F80" t="n">
-        <v>-1.810730233746013</v>
+        <v>-1.81734583611284</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.3606493780565418</v>
+        <v>-0.3609311274792547</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>0.2166192784452987</v>
       </c>
       <c r="E81" t="n">
-        <v>0.5239666823247791</v>
+        <v>0.5087490654600439</v>
       </c>
       <c r="F81" t="n">
-        <v>-1.774914215650377</v>
+        <v>-1.782414416763375</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.3036447015595161</v>
+        <v>-0.3038461760070426</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>0.2169126216494043</v>
       </c>
       <c r="E82" t="n">
-        <v>0.7823781235260768</v>
+        <v>0.7665733975290966</v>
       </c>
       <c r="F82" t="n">
-        <v>-1.725102019528135</v>
+        <v>-1.73227246363522</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.2562352456259394</v>
+        <v>-0.2570836419323205</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>0.2189103343962769</v>
       </c>
       <c r="E83" t="n">
-        <v>1.004941279239751</v>
+        <v>0.9901722578245872</v>
       </c>
       <c r="F83" t="n">
-        <v>-1.67918394671199</v>
+        <v>-1.686406333450079</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.2105619327831573</v>
+        <v>-0.2105084161330331</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>0.2220431607768126</v>
       </c>
       <c r="E84" t="n">
-        <v>1.224959246034283</v>
+        <v>1.209248961184581</v>
       </c>
       <c r="F84" t="n">
-        <v>-1.631484871260094</v>
+        <v>-1.638725359218077</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.1623009325049569</v>
+        <v>-0.1621907511664659</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>0.2253301171098916</v>
       </c>
       <c r="E85" t="n">
-        <v>1.48750878350548</v>
+        <v>1.470446416230581</v>
       </c>
       <c r="F85" t="n">
-        <v>-1.569547218836912</v>
+        <v>-1.575908617115649</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.1125115596599736</v>
+        <v>-0.1135000436681504</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>0.2284356103101481</v>
       </c>
       <c r="E86" t="n">
-        <v>1.674336983108266</v>
+        <v>1.658448834097856</v>
       </c>
       <c r="F86" t="n">
-        <v>-1.495563598078416</v>
+        <v>-1.500988454979979</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.07070246375998472</v>
+        <v>-0.07150836155009067</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>0.2301836390257922</v>
       </c>
       <c r="E87" t="n">
-        <v>1.84582007029749</v>
+        <v>1.830238855015735</v>
       </c>
       <c r="F87" t="n">
-        <v>-1.411916286924694</v>
+        <v>-1.415953645970831</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.01678443875982966</v>
+        <v>-0.018262442714731</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>0.2290988676434556</v>
       </c>
       <c r="E88" t="n">
-        <v>1.979142637909901</v>
+        <v>1.963381984448317</v>
       </c>
       <c r="F88" t="n">
-        <v>-1.307273134711943</v>
+        <v>-1.311358501341279</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02298000630158962</v>
+        <v>0.0213430264154369</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.2236218246306549</v>
       </c>
       <c r="E89" t="n">
-        <v>2.063747739698934</v>
+        <v>2.049145564310628</v>
       </c>
       <c r="F89" t="n">
-        <v>-1.15692204123574</v>
+        <v>-1.160257387753777</v>
       </c>
       <c r="G89" t="n">
-        <v>0.05925327695196397</v>
+        <v>0.05761944510405385</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.2124871560271016</v>
       </c>
       <c r="E90" t="n">
-        <v>2.131137794358302</v>
+        <v>2.118512586986349</v>
       </c>
       <c r="F90" t="n">
-        <v>-1.020201166340441</v>
+        <v>-1.022191513519326</v>
       </c>
       <c r="G90" t="n">
-        <v>0.07896157036976988</v>
+        <v>0.07732144244537456</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1954284040401635</v>
       </c>
       <c r="E91" t="n">
-        <v>2.163844337679809</v>
+        <v>2.152859258232251</v>
       </c>
       <c r="F91" t="n">
-        <v>-0.8400869452995642</v>
+        <v>-0.841046309953997</v>
       </c>
       <c r="G91" t="n">
-        <v>0.05633347148195119</v>
+        <v>0.0554347065636885</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.171919255332104</v>
       </c>
       <c r="E92" t="n">
-        <v>2.223879000985339</v>
+        <v>2.212657818669586</v>
       </c>
       <c r="F92" t="n">
-        <v>-0.6377790546483474</v>
+        <v>-0.6382024657919773</v>
       </c>
       <c r="G92" t="n">
-        <v>0.08161851464652543</v>
+        <v>0.08043170422906472</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1413145563019358</v>
       </c>
       <c r="E93" t="n">
-        <v>2.212484676566243</v>
+        <v>2.201126554586937</v>
       </c>
       <c r="F93" t="n">
-        <v>-0.4949982061360407</v>
+        <v>-0.4945197043231653</v>
       </c>
       <c r="G93" t="n">
-        <v>0.07025881864809838</v>
+        <v>0.06822675996249919</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1046301908395325</v>
       </c>
       <c r="E94" t="n">
-        <v>2.194391326766891</v>
+        <v>2.183444023778245</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.2945547411340046</v>
+        <v>-0.2940982755888275</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0428535717271321</v>
+        <v>0.04085928950044413</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.06343310611209874</v>
       </c>
       <c r="E95" t="n">
-        <v>2.086633977722646</v>
+        <v>2.078137422505865</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.1094375003160733</v>
+        <v>-0.1101458089206587</v>
       </c>
       <c r="G95" t="n">
-        <v>0.01903708840273139</v>
+        <v>0.01701919588922391</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.0207142136837411</v>
       </c>
       <c r="E96" t="n">
-        <v>1.998277988367553</v>
+        <v>1.990030128171938</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.009855606587864031</v>
+        <v>-0.01030735007567733</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.03019508167331152</v>
+        <v>-0.03090968635438203</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>-0.02156046985764542</v>
       </c>
       <c r="E97" t="n">
-        <v>1.788986961884686</v>
+        <v>1.781765362156159</v>
       </c>
       <c r="F97" t="n">
-        <v>0.06569258917720508</v>
+        <v>0.06537148927645973</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.05817484557355254</v>
+        <v>-0.05938526627783278</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>-0.0626133736284534</v>
       </c>
       <c r="E98" t="n">
-        <v>1.605835670949259</v>
+        <v>1.600060594793207</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1067760622622743</v>
+        <v>0.1058363728468578</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.07626976939202525</v>
+        <v>-0.07665068201938002</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>-0.1006316103672045</v>
       </c>
       <c r="E99" t="n">
-        <v>1.441545851144379</v>
+        <v>1.437018972151518</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1154740919265819</v>
+        <v>0.1151860464273839</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.1069300878558413</v>
+        <v>-0.1076919131105509</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>-0.1371490562488443</v>
       </c>
       <c r="E100" t="n">
-        <v>1.255740763970439</v>
+        <v>1.252356622859643</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1322972082950437</v>
+        <v>0.1316660266274021</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.1028848587140986</v>
+        <v>-0.1039300074106422</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.1689931278325561</v>
       </c>
       <c r="E101" t="n">
-        <v>1.111990319679411</v>
+        <v>1.109567904251729</v>
       </c>
       <c r="F101" t="n">
-        <v>0.09646938505599743</v>
+        <v>0.09665984136967481</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.1388401775019702</v>
+        <v>-0.1392950690280261</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.1979071885619511</v>
       </c>
       <c r="E102" t="n">
-        <v>0.9503102235776473</v>
+        <v>0.9487661108196512</v>
       </c>
       <c r="F102" t="n">
-        <v>0.08871576686447025</v>
+        <v>0.09000961058217941</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.09548224678662144</v>
+        <v>-0.09720894576268831</v>
       </c>
     </row>
   </sheetData>
